--- a/kirara/html_template/html_template.xlsx
+++ b/kirara/html_template/html_template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c8d4420197fcefeb/Documents/_Work/Github/lm4183-0.github.io/kirara/html_template/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="390" documentId="8_{7884EE37-AD7F-4F42-B510-43E93D0C3D7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C032CEA3-476A-452E-B75E-C98024F4370F}"/>
+  <xr:revisionPtr revIDLastSave="499" documentId="8_{7884EE37-AD7F-4F42-B510-43E93D0C3D7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1DA55D41-C11C-4012-816D-551F856CBE41}"/>
   <bookViews>
-    <workbookView xWindow="15" yWindow="1575" windowWidth="16275" windowHeight="12420" xr2:uid="{F2E3503E-D89D-4E44-AD8E-D0386681CF8F}"/>
+    <workbookView xWindow="315" yWindow="2130" windowWidth="20580" windowHeight="12420" xr2:uid="{F2E3503E-D89D-4E44-AD8E-D0386681CF8F}"/>
   </bookViews>
   <sheets>
     <sheet name="html" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1415" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1513" uniqueCount="187">
   <si>
     <t>&lt;div&gt;</t>
   </si>
@@ -596,27 +596,15 @@
     <t xml:space="preserve">            &lt;tr classs="classChTrTh"&gt;</t>
   </si>
   <si>
-    <t xml:space="preserve">                &lt;th classs="classChTh" colspan="★"&gt;&lt;span class="classChThData"&gt;画像&lt;/span&gt;&lt;/th&gt;</t>
-  </si>
-  <si>
     <t xml:space="preserve">                &lt;th classs="classChTh"&gt;&lt;span class="classChThData"&gt;名前&lt;/span&gt;&lt;/th&gt;</t>
   </si>
   <si>
-    <t xml:space="preserve">                &lt;th classs="classChTh" colspan="★"&gt;&lt;span class="classChThData"&gt;職業&lt;/span&gt;&lt;/th&gt;</t>
-  </si>
-  <si>
     <t xml:space="preserve">                &lt;th classs="classChTh"&gt;&lt;span class="classChThData"&gt;学校名&lt;/span&gt;&lt;/th&gt;</t>
   </si>
   <si>
     <t xml:space="preserve">                &lt;th classs="classChTh"&gt;&lt;span class="classChThData"&gt;組&lt;/span&gt;&lt;/th&gt;</t>
   </si>
   <si>
-    <t xml:space="preserve">                &lt;th classs="classChTh" colspan="★"&gt;&lt;span class="classChThData"&gt;所属/グループ&lt;/span&gt;&lt;/th&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                &lt;th classs="classChTh"&gt;&lt;span class="classChThData"&gt;年齢&lt;/span&gt;&lt;/th&gt;</t>
-  </si>
-  <si>
     <t xml:space="preserve">                &lt;th classs="classChTh"&gt;&lt;span class="classChThData"&gt;誕生日&lt;/span&gt;&lt;/th&gt;</t>
   </si>
   <si>
@@ -626,9 +614,6 @@
     <t xml:space="preserve">                &lt;th classs="classChTh"&gt;&lt;span class="classChThData"&gt;体重&lt;/span&gt;&lt;/th&gt;</t>
   </si>
   <si>
-    <t xml:space="preserve">                &lt;th classs="classChTh" colspan="★"&gt;&lt;span class="classChThData"&gt;その他&lt;/span&gt;&lt;/th&gt;</t>
-  </si>
-  <si>
     <t xml:space="preserve">    &lt;span class="classImItemHeader"&gt;所感&lt;/span&gt;</t>
   </si>
   <si>
@@ -690,6 +675,90 @@
   </si>
   <si>
     <t>init</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>所属/グループ</t>
+  </si>
+  <si>
+    <t>誕生日</t>
+  </si>
+  <si>
+    <t>身長</t>
+  </si>
+  <si>
+    <t>体重</t>
+  </si>
+  <si>
+    <t>その他1</t>
+  </si>
+  <si>
+    <t>img1</t>
+  </si>
+  <si>
+    <t>del</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>copy</t>
+  </si>
+  <si>
+    <t>star</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>date</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">                &lt;th classs="classChTh"&gt;&lt;span class="classChThData"&gt;所属/グループ&lt;/span&gt;&lt;/th&gt;</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>職業2</t>
+    <rPh sb="0" eb="2">
+      <t>ショクギョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>その他2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>jdg_del</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">                &lt;th classs="classChTh"&gt;&lt;span class="classChThData"&gt;画像&lt;/span&gt;&lt;/th&gt;</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">                &lt;th classs="classChTh"&gt;&lt;span class="classChThData"&gt;職業&lt;/span&gt;&lt;/th&gt;</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">                &lt;th classs="classChTh"&gt;&lt;span class="classChThData"&gt;その他&lt;/span&gt;&lt;/th&gt;</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">                &lt;th classs="classChTh"&gt;&lt;span class="classChThData"&gt;職業2&lt;/span&gt;&lt;/th&gt;</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>del</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">             &lt;td classs="classChTd"&gt;</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&lt;/span&gt;&lt;/td&gt;</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&lt;span class="classChTdData"&gt;&lt;img class="classChImgCharacter" src="//lm4183-0.github.io/img/★" /&gt;</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1104,1599 +1173,1975 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74C7D1B0-7329-4BB7-A21A-3C883573114E}">
-  <dimension ref="A1:O118"/>
+  <dimension ref="A1:P135"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A73" sqref="A73"/>
+    <sheetView tabSelected="1" topLeftCell="A55" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A76" sqref="A76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="54.88671875" customWidth="1"/>
-    <col min="2" max="2" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.21875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.33203125" customWidth="1"/>
-    <col min="8" max="8" width="5.5546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.5546875" customWidth="1"/>
-    <col min="10" max="10" width="9.77734375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.44140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="22.88671875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="20.33203125" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="61.44140625" customWidth="1"/>
+    <col min="2" max="2" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.21875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.33203125" customWidth="1"/>
+    <col min="9" max="9" width="5.5546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.5546875" customWidth="1"/>
+    <col min="11" max="11" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="22.88671875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="6.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="1"/>
+      <c r="D1" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="D1" s="1"/>
-      <c r="J1" t="s">
-        <v>94</v>
-      </c>
+      <c r="E1" s="1"/>
       <c r="K1" t="s">
+        <v>94</v>
+      </c>
+      <c r="L1" t="s">
         <v>96</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>97</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>98</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>106</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>116</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>117</v>
       </c>
-      <c r="E3" t="s">
-        <v>94</v>
-      </c>
       <c r="F3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+        <v>94</v>
+      </c>
+      <c r="G3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>116</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>118</v>
       </c>
-      <c r="E4" t="s">
-        <v>94</v>
-      </c>
       <c r="F4" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+        <v>94</v>
+      </c>
+      <c r="G4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>0</v>
       </c>
       <c r="B5" t="s">
         <v>55</v>
       </c>
-      <c r="J5" s="6" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="K5" s="6" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>122</v>
       </c>
       <c r="B6" t="s">
         <v>55</v>
       </c>
-      <c r="J6" s="6" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="K6" s="6" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>2</v>
       </c>
       <c r="B7" t="s">
         <v>55</v>
       </c>
-      <c r="J7" s="6" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="K7" s="6" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>123</v>
       </c>
       <c r="B8" t="s">
         <v>55</v>
       </c>
-      <c r="J8" s="6" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="K8" s="6" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>124</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="C9" s="3" t="s">
-        <v>94</v>
-      </c>
+      <c r="C9" s="3"/>
       <c r="D9" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="J9" s="6" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+        <v>94</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="K9" s="6" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>125</v>
       </c>
       <c r="B10" t="s">
         <v>55</v>
       </c>
-      <c r="J10" s="6" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="K10" s="6" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>124</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="C11" s="3" t="s">
-        <v>94</v>
-      </c>
+      <c r="C11" s="3"/>
       <c r="D11" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="E11" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="J11" s="6" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="K11" s="6" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>126</v>
       </c>
       <c r="B12" t="s">
         <v>55</v>
       </c>
-      <c r="J12" s="6" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="K12" s="6" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>124</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C13" s="3"/>
+      <c r="D13" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="D13" s="3" t="s">
+      <c r="E13" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="J13" s="6" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="K13" s="6" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>2</v>
       </c>
       <c r="B14" t="s">
         <v>55</v>
       </c>
-      <c r="J14" s="6" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="K14" s="6" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>127</v>
       </c>
       <c r="B15" t="s">
         <v>55</v>
       </c>
-      <c r="J15" s="6" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="K15" s="6" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>128</v>
       </c>
       <c r="B16" t="s">
         <v>55</v>
       </c>
-      <c r="J16" s="6" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K16" s="6" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>129</v>
       </c>
       <c r="B17" t="s">
         <v>55</v>
       </c>
-      <c r="J17" s="6" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K17" s="6" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>130</v>
       </c>
       <c r="B18" t="s">
         <v>55</v>
       </c>
-      <c r="J18" s="6" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K18" s="6" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>131</v>
       </c>
       <c r="B19" t="s">
         <v>55</v>
       </c>
-      <c r="J19" s="6" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K19" s="6" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>132</v>
       </c>
       <c r="B20" t="s">
         <v>55</v>
       </c>
-      <c r="J20" s="6" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K20" s="6" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>133</v>
       </c>
       <c r="B21" t="s">
         <v>55</v>
       </c>
-      <c r="J21" s="6" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K21" s="6" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>29</v>
       </c>
       <c r="B22" t="s">
         <v>55</v>
       </c>
-      <c r="J22" s="6" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K22" s="6" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B23" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="C23" s="1"/>
+      <c r="D23" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="D23" s="1"/>
-      <c r="E23" t="s">
-        <v>94</v>
-      </c>
+      <c r="E23" s="1"/>
       <c r="F23" t="s">
-        <v>45</v>
-      </c>
-      <c r="J23" s="6" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+        <v>94</v>
+      </c>
+      <c r="G23" t="s">
+        <v>45</v>
+      </c>
+      <c r="K23" s="6" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>14</v>
       </c>
       <c r="B24" t="s">
         <v>55</v>
       </c>
-      <c r="J24" s="6" t="s">
-        <v>109</v>
-      </c>
       <c r="K24" s="6" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L24" s="6" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>134</v>
       </c>
       <c r="B25" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="C25" s="3" t="s">
-        <v>94</v>
-      </c>
+      <c r="C25" s="3"/>
       <c r="D25" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="J25" s="6" t="s">
-        <v>109</v>
+        <v>94</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>45</v>
       </c>
       <c r="K25" s="6" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L25" s="6" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>134</v>
       </c>
       <c r="B26" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="C26" s="3" t="s">
+      <c r="C26" s="3"/>
+      <c r="D26" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="D26" s="3" t="s">
+      <c r="E26" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="J26" s="6" t="s">
-        <v>109</v>
-      </c>
       <c r="K26" s="6" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L26" s="6" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>134</v>
       </c>
       <c r="B27" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="C27" s="3" t="s">
+      <c r="C27" s="3"/>
+      <c r="D27" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="D27" s="3" t="s">
+      <c r="E27" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="J27" s="6" t="s">
-        <v>109</v>
-      </c>
       <c r="K27" s="6" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L27" s="6" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B28" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C28" s="1" t="s">
+      <c r="C28" s="1"/>
+      <c r="D28" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="D28" s="1"/>
-      <c r="E28" t="s">
-        <v>94</v>
-      </c>
+      <c r="E28" s="1"/>
       <c r="F28" t="s">
-        <v>45</v>
+        <v>94</v>
       </c>
       <c r="G28" t="s">
+        <v>45</v>
+      </c>
+      <c r="H28" t="s">
         <v>96</v>
       </c>
-      <c r="H28" t="s">
+      <c r="I28" t="s">
         <v>110</v>
       </c>
-      <c r="J28" s="6" t="s">
-        <v>109</v>
-      </c>
       <c r="K28" s="6" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L28" s="6" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>134</v>
       </c>
       <c r="B29" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="C29" s="3" t="s">
+      <c r="C29" s="3"/>
+      <c r="D29" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="D29" s="3" t="s">
+      <c r="E29" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="J29" s="6" t="s">
-        <v>109</v>
-      </c>
       <c r="K29" s="6" t="s">
         <v>109</v>
       </c>
       <c r="L29" s="6" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M29" s="6" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B30" s="1" t="s">
         <v>50</v>
       </c>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
-      <c r="J30" s="6" t="s">
-        <v>109</v>
-      </c>
+      <c r="E30" s="1"/>
       <c r="K30" s="6" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L30" s="6" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>29</v>
       </c>
       <c r="B31" t="s">
         <v>55</v>
       </c>
-      <c r="J31" s="6" t="s">
-        <v>109</v>
-      </c>
       <c r="K31" s="6" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L31" s="6" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B32" s="1" t="s">
         <v>50</v>
       </c>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
-      <c r="J32" s="6" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="E32" s="1"/>
+      <c r="K32" s="6" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>15</v>
       </c>
       <c r="B33" t="s">
         <v>55</v>
       </c>
-      <c r="J33" s="6" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="K33" s="6" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>16</v>
       </c>
       <c r="B34" t="s">
         <v>55</v>
       </c>
-      <c r="J34" s="6" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="K34" s="6" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
         <v>55</v>
       </c>
-      <c r="J35" s="6" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="K35" s="6" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>135</v>
       </c>
       <c r="B36" t="s">
         <v>55</v>
       </c>
-      <c r="J36" s="6" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="K36" s="6" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="B37" t="s">
         <v>55</v>
       </c>
-      <c r="J37" s="6" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="K37" s="6" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B38" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C38" s="1" t="s">
+      <c r="C38" s="1"/>
+      <c r="D38" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="D38" s="1"/>
-      <c r="E38" t="s">
-        <v>94</v>
-      </c>
+      <c r="E38" s="1"/>
       <c r="F38" t="s">
-        <v>45</v>
-      </c>
-      <c r="J38" s="6" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+        <v>94</v>
+      </c>
+      <c r="G38" t="s">
+        <v>45</v>
+      </c>
+      <c r="K38" s="6" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>65</v>
       </c>
       <c r="B39" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="C39" s="3" t="s">
+      <c r="C39" s="3"/>
+      <c r="D39" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="D39" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="J39" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="N39" s="6" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="E39" s="3"/>
+      <c r="K39" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="O39" s="6" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B40" s="1" t="s">
         <v>50</v>
       </c>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
-      <c r="J40" s="6" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="E40" s="1"/>
+      <c r="K40" s="6" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>2</v>
       </c>
       <c r="B41" t="s">
         <v>55</v>
       </c>
-      <c r="J41" s="6" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="K41" s="6" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>136</v>
       </c>
       <c r="B42" t="s">
         <v>55</v>
       </c>
-      <c r="J42" s="6" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="K42" s="6" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>137</v>
       </c>
       <c r="B43" t="s">
         <v>55</v>
       </c>
-      <c r="J43" s="6" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="K43" s="6" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>138</v>
       </c>
       <c r="B44" t="s">
         <v>55</v>
       </c>
-      <c r="J44" s="6" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
+      <c r="K44" s="6" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B45" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C45" s="1"/>
+      <c r="D45" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="F45" t="s">
+        <v>94</v>
+      </c>
+      <c r="G45" t="s">
+        <v>45</v>
+      </c>
+      <c r="K45" s="6"/>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B46" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C46" s="1"/>
+      <c r="D46" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="E46" s="1"/>
+      <c r="F46" t="s">
+        <v>94</v>
+      </c>
+      <c r="G46" t="s">
+        <v>45</v>
+      </c>
+      <c r="H46" t="s">
+        <v>98</v>
+      </c>
+      <c r="I46" t="s">
+        <v>48</v>
+      </c>
+      <c r="K46" s="6"/>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B47" t="s">
+        <v>178</v>
+      </c>
+      <c r="D47" t="s">
+        <v>170</v>
+      </c>
+      <c r="K47" s="6"/>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B48" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C48" s="1"/>
+      <c r="D48" s="1"/>
+      <c r="E48" s="1"/>
+      <c r="K48" s="6"/>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B49" t="s">
+        <v>178</v>
+      </c>
+      <c r="D49" t="s">
+        <v>115</v>
+      </c>
+      <c r="E49" t="s">
+        <v>119</v>
+      </c>
+      <c r="K49" s="6"/>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B50" t="s">
+        <v>178</v>
+      </c>
+      <c r="D50" t="s">
+        <v>115</v>
+      </c>
+      <c r="E50" t="s">
+        <v>176</v>
+      </c>
+      <c r="K50" s="6"/>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B51" t="s">
+        <v>178</v>
+      </c>
+      <c r="D51" t="s">
+        <v>115</v>
+      </c>
+      <c r="E51" t="s">
+        <v>71</v>
+      </c>
+      <c r="K51" s="6"/>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B52" t="s">
+        <v>178</v>
+      </c>
+      <c r="D52" t="s">
+        <v>115</v>
+      </c>
+      <c r="E52" t="s">
+        <v>72</v>
+      </c>
+      <c r="K52" s="6"/>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B53" t="s">
+        <v>178</v>
+      </c>
+      <c r="D53" t="s">
+        <v>115</v>
+      </c>
+      <c r="E53" t="s">
+        <v>165</v>
+      </c>
+      <c r="K53" s="6"/>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B54" t="s">
+        <v>178</v>
+      </c>
+      <c r="D54" t="s">
+        <v>115</v>
+      </c>
+      <c r="E54" t="s">
+        <v>166</v>
+      </c>
+      <c r="K54" s="6"/>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B55" t="s">
+        <v>178</v>
+      </c>
+      <c r="D55" t="s">
+        <v>115</v>
+      </c>
+      <c r="E55" t="s">
+        <v>167</v>
+      </c>
+      <c r="K55" s="6"/>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B56" t="s">
+        <v>178</v>
+      </c>
+      <c r="D56" t="s">
+        <v>115</v>
+      </c>
+      <c r="E56" t="s">
+        <v>168</v>
+      </c>
+      <c r="K56" s="6"/>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B57" t="s">
+        <v>178</v>
+      </c>
+      <c r="D57" t="s">
+        <v>115</v>
+      </c>
+      <c r="E57" t="s">
+        <v>169</v>
+      </c>
+      <c r="K57" s="6"/>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B58" t="s">
+        <v>178</v>
+      </c>
+      <c r="D58" t="s">
+        <v>115</v>
+      </c>
+      <c r="E58" t="s">
+        <v>177</v>
+      </c>
+      <c r="K58" s="6"/>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B59" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C59" s="1"/>
+      <c r="D59" s="1"/>
+      <c r="K59" s="6"/>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>179</v>
+      </c>
+      <c r="B60" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="C60" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="D60" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="E60" s="5"/>
+      <c r="K60" s="6" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
         <v>139</v>
       </c>
-      <c r="B45" s="5"/>
-      <c r="C45" s="5"/>
-      <c r="D45" s="5"/>
-      <c r="J45" s="6" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
+      <c r="B61" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="C61" s="5"/>
+      <c r="D61" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="E61" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="K61" s="6" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>180</v>
+      </c>
+      <c r="B62" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="C62" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="D62" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="E62" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="K62" s="6" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>182</v>
+      </c>
+      <c r="B63" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="C63" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="D63" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="E63" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="K63" s="6" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
         <v>140</v>
       </c>
-      <c r="B46" t="s">
-        <v>55</v>
-      </c>
-      <c r="J46" s="6" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
+      <c r="B64" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="C64" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="D64" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="E64" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="K64" s="6" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="65" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
         <v>141</v>
       </c>
-      <c r="B47" s="5"/>
-      <c r="C47" s="5"/>
-      <c r="D47" s="5"/>
-      <c r="J47" s="6" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
+      <c r="B65" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="C65" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="D65" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="E65" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="K65" s="6" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="66" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>175</v>
+      </c>
+      <c r="B66" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="C66" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="D66" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="E66" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="K66" s="6" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="67" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
         <v>142</v>
       </c>
-      <c r="B48" t="s">
-        <v>55</v>
-      </c>
-      <c r="J48" s="6" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
+      <c r="B67" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="C67" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="D67" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="E67" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="K67" s="6" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="68" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
         <v>143</v>
       </c>
-      <c r="B49" t="s">
-        <v>55</v>
-      </c>
-      <c r="J49" s="6" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
+      <c r="B68" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="C68" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="D68" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="E68" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="K68" s="6" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="69" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
         <v>144</v>
       </c>
-      <c r="B50" s="5"/>
-      <c r="C50" s="5"/>
-      <c r="D50" s="5"/>
-      <c r="J50" s="6" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>145</v>
-      </c>
-      <c r="B51" t="s">
-        <v>55</v>
-      </c>
-      <c r="J51" s="6" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>146</v>
-      </c>
-      <c r="B52" t="s">
-        <v>55</v>
-      </c>
-      <c r="J52" s="6" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>147</v>
-      </c>
-      <c r="B53" t="s">
-        <v>55</v>
-      </c>
-      <c r="J53" s="6" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>148</v>
-      </c>
-      <c r="B54" t="s">
-        <v>55</v>
-      </c>
-      <c r="J54" s="6" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>149</v>
-      </c>
-      <c r="B55" s="5"/>
-      <c r="C55" s="5"/>
-      <c r="D55" s="5"/>
-      <c r="J55" s="6" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>29</v>
-      </c>
-      <c r="B56" t="s">
-        <v>55</v>
-      </c>
-      <c r="J56" s="6" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
+      <c r="B69" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="C69" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="D69" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="E69" s="5" t="s">
         <v>168</v>
       </c>
-      <c r="B57" t="s">
-        <v>55</v>
-      </c>
-      <c r="J57" s="6" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B58" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C58" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="D58" s="1"/>
-      <c r="E58" t="s">
-        <v>94</v>
-      </c>
-      <c r="F58" t="s">
-        <v>45</v>
-      </c>
-      <c r="J58" s="6" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B59" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C59" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="D59" s="1"/>
-      <c r="E59" t="s">
-        <v>94</v>
-      </c>
-      <c r="F59" t="s">
-        <v>45</v>
-      </c>
-      <c r="G59" t="s">
-        <v>98</v>
-      </c>
-      <c r="H59" t="s">
-        <v>48</v>
-      </c>
-      <c r="J59" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="M59" s="6" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
-        <v>84</v>
-      </c>
-      <c r="B60" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="C60" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="D60" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="J60" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="M60" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="O60" s="6" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B61" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C61" s="1"/>
-      <c r="D61" s="1"/>
-      <c r="J61" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="M61" s="6" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
-        <v>70</v>
-      </c>
-      <c r="B62" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="C62" s="3" t="s">
+      <c r="K69" s="6" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="70" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>181</v>
+      </c>
+      <c r="B70" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="C70" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="D70" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="D62" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="J62" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="M62" s="6" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
-        <v>70</v>
-      </c>
-      <c r="B63" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="C63" s="3" t="s">
+      <c r="E70" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="K70" s="6" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="71" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>181</v>
+      </c>
+      <c r="B71" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="C71" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="D71" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="D63" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="J63" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="M63" s="6" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
-        <v>70</v>
-      </c>
-      <c r="B64" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="C64" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="D64" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="J64" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="M64" s="6" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
-        <v>70</v>
-      </c>
-      <c r="B65" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="C65" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="D65" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="J65" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="M65" s="6" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
-        <v>70</v>
-      </c>
-      <c r="B66" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="C66" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="D66" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="J66" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="M66" s="6" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
-        <v>70</v>
-      </c>
-      <c r="B67" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="C67" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="D67" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="J67" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="M67" s="6" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
-        <v>70</v>
-      </c>
-      <c r="B68" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="C68" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="D68" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="J68" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="M68" s="6" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
-        <v>70</v>
-      </c>
-      <c r="B69" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="C69" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="D69" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="J69" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="M69" s="6" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
-        <v>70</v>
-      </c>
-      <c r="B70" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="C70" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="D70" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="J70" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="M70" s="6" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
-        <v>70</v>
-      </c>
-      <c r="B71" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="C71" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="D71" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="J71" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="M71" s="6" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E71" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="K71" s="6" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="72" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>29</v>
       </c>
       <c r="B72" t="s">
         <v>55</v>
       </c>
-      <c r="J72" s="6" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B73" s="1" t="s">
+      <c r="K72" s="6" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="73" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>163</v>
+      </c>
+      <c r="B73" t="s">
+        <v>55</v>
+      </c>
+      <c r="K73" s="6" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="74" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B74" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C74" s="1"/>
+      <c r="D74" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="E74" s="1"/>
+      <c r="F74" t="s">
+        <v>94</v>
+      </c>
+      <c r="G74" t="s">
+        <v>45</v>
+      </c>
+      <c r="K74" s="6" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="75" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>184</v>
+      </c>
+      <c r="B75" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C75" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="D75" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="E75" s="3"/>
+      <c r="K75" s="6"/>
+    </row>
+    <row r="76" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B76" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C76" s="1"/>
+      <c r="D76" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="E76" s="1"/>
+      <c r="F76" t="s">
+        <v>94</v>
+      </c>
+      <c r="G76" t="s">
+        <v>45</v>
+      </c>
+      <c r="H76" t="s">
+        <v>98</v>
+      </c>
+      <c r="I76" t="s">
+        <v>48</v>
+      </c>
+      <c r="K76" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="N76" s="6" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="77" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>186</v>
+      </c>
+      <c r="B77" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C77" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="D77" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="E77" s="3"/>
+      <c r="K77" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="N77" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="P77" s="6" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="78" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B78" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C73" s="1"/>
-      <c r="D73" s="1"/>
-      <c r="J73" s="6" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
+      <c r="C78" s="1"/>
+      <c r="D78" s="1"/>
+      <c r="E78" s="1"/>
+      <c r="K78" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="N78" s="6" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="79" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>185</v>
+      </c>
+      <c r="B79" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C79" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="D79" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="E79" s="3"/>
+      <c r="K79" s="6"/>
+      <c r="N79" s="6"/>
+    </row>
+    <row r="80" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>70</v>
+      </c>
+      <c r="B80" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C80" s="3"/>
+      <c r="D80" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="E80" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="K80" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="N80" s="6" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="81" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>70</v>
+      </c>
+      <c r="B81" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C81" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="D81" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="E81" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="K81" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="N81" s="6" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="82" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>70</v>
+      </c>
+      <c r="B82" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C82" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="D82" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="E82" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="K82" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="N82" s="6" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="83" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>70</v>
+      </c>
+      <c r="B83" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C83" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="D83" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="E83" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="K83" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="N83" s="6" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="84" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>70</v>
+      </c>
+      <c r="B84" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C84" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="D84" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="E84" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="K84" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="N84" s="6" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="85" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>70</v>
+      </c>
+      <c r="B85" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C85" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="D85" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="E85" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="K85" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="N85" s="6" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="86" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>70</v>
+      </c>
+      <c r="B86" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C86" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="D86" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="E86" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="K86" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="N86" s="6" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="87" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>70</v>
+      </c>
+      <c r="B87" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C87" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="D87" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="E87" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="K87" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="N87" s="6" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="88" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>70</v>
+      </c>
+      <c r="B88" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C88" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="D88" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="E88" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="K88" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="N88" s="6" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="89" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>29</v>
+      </c>
+      <c r="B89" t="s">
+        <v>55</v>
+      </c>
+      <c r="K89" s="6" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="90" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B90" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C90" s="1"/>
+      <c r="D90" s="1"/>
+      <c r="E90" s="1"/>
+      <c r="K90" s="6" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="91" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
         <v>15</v>
       </c>
-      <c r="B74" t="s">
-        <v>55</v>
-      </c>
-      <c r="J74" s="6" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
+      <c r="B91" t="s">
+        <v>55</v>
+      </c>
+      <c r="K91" s="6" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="92" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
         <v>16</v>
       </c>
-      <c r="B75" t="s">
-        <v>55</v>
-      </c>
-      <c r="J75" s="6" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B76" t="s">
-        <v>55</v>
-      </c>
-      <c r="J76" s="6" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
+      <c r="B92" t="s">
+        <v>55</v>
+      </c>
+      <c r="K92" s="6" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="93" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B93" t="s">
+        <v>55</v>
+      </c>
+      <c r="K93" s="6" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="94" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>145</v>
+      </c>
+      <c r="B94" t="s">
+        <v>55</v>
+      </c>
+      <c r="K94" s="6" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="95" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>2</v>
+      </c>
+      <c r="B95" t="s">
+        <v>55</v>
+      </c>
+      <c r="K95" s="6" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="96" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>146</v>
+      </c>
+      <c r="B96" t="s">
+        <v>55</v>
+      </c>
+      <c r="K96" s="6" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>147</v>
+      </c>
+      <c r="B97" t="s">
+        <v>55</v>
+      </c>
+      <c r="K97" s="6" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>148</v>
+      </c>
+      <c r="B98" t="s">
+        <v>55</v>
+      </c>
+      <c r="K98" s="6" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>149</v>
+      </c>
+      <c r="B99" t="s">
+        <v>55</v>
+      </c>
+      <c r="K99" s="6" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
         <v>150</v>
       </c>
-      <c r="B77" t="s">
-        <v>55</v>
-      </c>
-      <c r="J77" s="6" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
-        <v>2</v>
-      </c>
-      <c r="B78" t="s">
-        <v>55</v>
-      </c>
-      <c r="J78" s="6" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
+      <c r="B100" t="s">
+        <v>55</v>
+      </c>
+      <c r="K100" s="6" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
         <v>151</v>
       </c>
-      <c r="B79" t="s">
-        <v>55</v>
-      </c>
-      <c r="J79" s="6" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A80" t="s">
+      <c r="B101" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C101" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="D101" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="E101" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="K101" s="6" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
         <v>152</v>
       </c>
-      <c r="B80" t="s">
-        <v>55</v>
-      </c>
-      <c r="J80" s="6" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A81" t="s">
+      <c r="B102" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C102" s="3"/>
+      <c r="D102" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="E102" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="K102" s="6" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>29</v>
+      </c>
+      <c r="B103" t="s">
+        <v>55</v>
+      </c>
+      <c r="K103" s="6" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>148</v>
+      </c>
+      <c r="B104" t="s">
+        <v>55</v>
+      </c>
+      <c r="K104" s="6" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
         <v>153</v>
       </c>
-      <c r="B81" t="s">
-        <v>55</v>
-      </c>
-      <c r="J81" s="6" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A82" t="s">
+      <c r="B105" t="s">
+        <v>55</v>
+      </c>
+      <c r="K105" s="6" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>150</v>
+      </c>
+      <c r="B106" t="s">
+        <v>55</v>
+      </c>
+      <c r="K106" s="6" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>151</v>
+      </c>
+      <c r="B107" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C107" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="D107" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="E107" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K107" s="6" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>152</v>
+      </c>
+      <c r="B108" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C108" s="3"/>
+      <c r="D108" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="E108" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="K108" s="6" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>29</v>
+      </c>
+      <c r="B109" t="s">
+        <v>55</v>
+      </c>
+      <c r="K109" s="6" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>148</v>
+      </c>
+      <c r="B110" t="s">
+        <v>55</v>
+      </c>
+      <c r="K110" s="6" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
         <v>154</v>
       </c>
-      <c r="B82" t="s">
-        <v>55</v>
-      </c>
-      <c r="J82" s="6" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A83" t="s">
+      <c r="B111" t="s">
+        <v>55</v>
+      </c>
+      <c r="K111" s="6" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>150</v>
+      </c>
+      <c r="B112" t="s">
+        <v>55</v>
+      </c>
+      <c r="K112" s="6" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>151</v>
+      </c>
+      <c r="B113" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C113" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="D113" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="E113" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="K113" s="6" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>152</v>
+      </c>
+      <c r="B114" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C114" s="3"/>
+      <c r="D114" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="E114" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="K114" s="6" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>29</v>
+      </c>
+      <c r="B115" t="s">
+        <v>55</v>
+      </c>
+      <c r="K115" s="6" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>148</v>
+      </c>
+      <c r="B116" t="s">
+        <v>55</v>
+      </c>
+      <c r="K116" s="6" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
         <v>155</v>
       </c>
-      <c r="B83" t="s">
-        <v>55</v>
-      </c>
-      <c r="J83" s="6" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A84" t="s">
+      <c r="B117" t="s">
+        <v>55</v>
+      </c>
+      <c r="K117" s="6" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
         <v>156</v>
       </c>
-      <c r="B84" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="C84" s="3" t="s">
+      <c r="B118" t="s">
+        <v>55</v>
+      </c>
+      <c r="K118" s="6" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>150</v>
+      </c>
+      <c r="B119" t="s">
+        <v>55</v>
+      </c>
+      <c r="K119" s="6" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>157</v>
+      </c>
+      <c r="B120" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C120" s="3"/>
+      <c r="D120" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="D84" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="J84" s="6" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A85" t="s">
-        <v>157</v>
-      </c>
-      <c r="B85" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="C85" s="3" t="s">
+      <c r="E120" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="K120" s="6" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>152</v>
+      </c>
+      <c r="B121" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C121" s="3"/>
+      <c r="D121" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="D85" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="J85" s="6" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A86" t="s">
+      <c r="E121" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="K121" s="6" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>41</v>
+      </c>
+      <c r="B122" t="s">
+        <v>55</v>
+      </c>
+      <c r="K122" s="6" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
         <v>29</v>
       </c>
-      <c r="B86" t="s">
-        <v>55</v>
-      </c>
-      <c r="J86" s="6" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A87" t="s">
-        <v>153</v>
-      </c>
-      <c r="B87" t="s">
-        <v>55</v>
-      </c>
-      <c r="J87" s="6" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A88" t="s">
+      <c r="B123" t="s">
+        <v>55</v>
+      </c>
+      <c r="K123" s="6" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>15</v>
+      </c>
+      <c r="B124" t="s">
+        <v>55</v>
+      </c>
+      <c r="K124" s="6" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>16</v>
+      </c>
+      <c r="B125" t="s">
+        <v>55</v>
+      </c>
+      <c r="K125" s="6" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B126" t="s">
+        <v>55</v>
+      </c>
+      <c r="K126" s="6" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
         <v>158</v>
       </c>
-      <c r="B88" t="s">
-        <v>55</v>
-      </c>
-      <c r="J88" s="6" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A89" t="s">
-        <v>155</v>
-      </c>
-      <c r="B89" t="s">
-        <v>55</v>
-      </c>
-      <c r="J89" s="6" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A90" t="s">
-        <v>156</v>
-      </c>
-      <c r="B90" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="C90" s="3" t="s">
+      <c r="B127" t="s">
+        <v>55</v>
+      </c>
+      <c r="K127" s="6" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>159</v>
+      </c>
+      <c r="B128" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C128" s="3"/>
+      <c r="D128" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="D90" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="J90" s="6" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A91" t="s">
-        <v>157</v>
-      </c>
-      <c r="B91" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="C91" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="D91" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="J91" s="6" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A92" t="s">
-        <v>29</v>
-      </c>
-      <c r="B92" t="s">
-        <v>55</v>
-      </c>
-      <c r="J92" s="6" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A93" t="s">
-        <v>153</v>
-      </c>
-      <c r="B93" t="s">
-        <v>55</v>
-      </c>
-      <c r="J93" s="6" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A94" t="s">
-        <v>159</v>
-      </c>
-      <c r="B94" t="s">
-        <v>55</v>
-      </c>
-      <c r="J94" s="6" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A95" t="s">
-        <v>155</v>
-      </c>
-      <c r="B95" t="s">
-        <v>55</v>
-      </c>
-      <c r="J95" s="6" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A96" t="s">
-        <v>156</v>
-      </c>
-      <c r="B96" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="C96" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="D96" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="J96" s="6" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A97" t="s">
-        <v>157</v>
-      </c>
-      <c r="B97" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="C97" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="D97" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="J97" s="6" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A98" t="s">
-        <v>29</v>
-      </c>
-      <c r="B98" t="s">
-        <v>55</v>
-      </c>
-      <c r="J98" s="6" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A99" t="s">
-        <v>153</v>
-      </c>
-      <c r="B99" t="s">
-        <v>55</v>
-      </c>
-      <c r="J99" s="6" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A100" t="s">
+      <c r="E128" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="K128" s="6" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B129" t="s">
+        <v>55</v>
+      </c>
+      <c r="K129" s="6" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
         <v>160</v>
       </c>
-      <c r="B100" t="s">
-        <v>55</v>
-      </c>
-      <c r="J100" s="6" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A101" t="s">
-        <v>161</v>
-      </c>
-      <c r="B101" t="s">
-        <v>55</v>
-      </c>
-      <c r="J101" s="6" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A102" t="s">
-        <v>155</v>
-      </c>
-      <c r="B102" t="s">
-        <v>55</v>
-      </c>
-      <c r="J102" s="6" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A103" t="s">
+      <c r="B130" t="s">
+        <v>55</v>
+      </c>
+      <c r="K130" s="6" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
         <v>162</v>
       </c>
-      <c r="B103" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="C103" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="D103" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="J103" s="6" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A104" t="s">
-        <v>157</v>
-      </c>
-      <c r="B104" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="C104" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="D104" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="J104" s="6" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A105" t="s">
-        <v>41</v>
-      </c>
-      <c r="B105" t="s">
-        <v>55</v>
-      </c>
-      <c r="J105" s="6" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A106" t="s">
-        <v>29</v>
-      </c>
-      <c r="B106" t="s">
-        <v>55</v>
-      </c>
-      <c r="J106" s="6" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A107" t="s">
-        <v>15</v>
-      </c>
-      <c r="B107" t="s">
-        <v>55</v>
-      </c>
-      <c r="J107" s="6" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A108" t="s">
-        <v>16</v>
-      </c>
-      <c r="B108" t="s">
-        <v>55</v>
-      </c>
-      <c r="J108" s="6" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B109" t="s">
-        <v>55</v>
-      </c>
-      <c r="J109" s="6" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A110" t="s">
-        <v>163</v>
-      </c>
-      <c r="B110" t="s">
-        <v>55</v>
-      </c>
-      <c r="J110" s="6" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A111" t="s">
-        <v>164</v>
-      </c>
-      <c r="B111" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="C111" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="D111" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="J111" s="6" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B112" t="s">
-        <v>55</v>
-      </c>
-      <c r="J112" s="6" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A113" t="s">
-        <v>165</v>
-      </c>
-      <c r="B113" t="s">
-        <v>55</v>
-      </c>
-      <c r="J113" s="6" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A114" t="s">
-        <v>167</v>
-      </c>
-      <c r="B114" t="s">
-        <v>55</v>
-      </c>
-      <c r="J114" s="6" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A115" t="s">
+      <c r="B131" t="s">
+        <v>55</v>
+      </c>
+      <c r="K131" s="6" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
         <v>83</v>
       </c>
-      <c r="B115" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="C115" s="4"/>
-      <c r="D115" s="4"/>
-      <c r="J115" s="6" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B116" t="s">
+      <c r="B132" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C132" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="D132" s="3"/>
+      <c r="E132" s="3"/>
+      <c r="K132" s="6" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B133" t="s">
         <v>113</v>
       </c>
-      <c r="J116" s="6" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B117" s="1" t="s">
+      <c r="K133" s="6" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B134" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C117" s="1"/>
-      <c r="D117" s="1"/>
-    </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B118" t="s">
+      <c r="C134" s="1"/>
+      <c r="D134" s="1"/>
+      <c r="E134" s="1"/>
+    </row>
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B135" t="s">
         <v>112</v>
       </c>
     </row>
